--- a/dynamics/src/dynamics/xlsx/dynamics_static_torque_calc.xlsx
+++ b/dynamics/src/dynamics/xlsx/dynamics_static_torque_calc.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,718 +454,540 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>torque 7</t>
+          <t>angle 1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>angle 1</t>
+          <t>angle 2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>angle 2</t>
+          <t>angle 3</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>angle 3</t>
+          <t>angle 4</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>angle 4</t>
+          <t>angle 5</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>angle 5</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
           <t>angle 6</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>angle 7</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.091084402029074e-15</v>
+        <v>4.027099431972793e-16</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.458597306597355</v>
+        <v>-3.395472400553591</v>
       </c>
       <c r="C2" t="n">
-        <v>1.111588751874487</v>
+        <v>-3.294335270914268</v>
       </c>
       <c r="D2" t="n">
-        <v>2.135759912283032</v>
+        <v>-0.1815771826799053</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06531937323889681</v>
+        <v>-0.004089238606516341</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01442690564597352</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>184.4711954853358</v>
       </c>
       <c r="H2" t="n">
-        <v>199.581576592411</v>
+        <v>264.0064274450073</v>
       </c>
       <c r="I2" t="n">
-        <v>305.8726010639211</v>
+        <v>269.0912315746763</v>
       </c>
       <c r="J2" t="n">
-        <v>246.8483767385426</v>
+        <v>180.6403184302014</v>
       </c>
       <c r="K2" t="n">
-        <v>459.6860818437322</v>
+        <v>179.6620128009091</v>
       </c>
       <c r="L2" t="n">
-        <v>339.459527560676</v>
-      </c>
-      <c r="M2" t="n">
-        <v>528.7828689279427</v>
-      </c>
-      <c r="N2" t="n">
-        <v>440.2046731874333</v>
+        <v>102.5228374817497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.095903073240358e-15</v>
+        <v>-3.957137608154852e-16</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.391566670606764</v>
+        <v>4.416294627118377</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.335612090260697</v>
+        <v>2.924841042317625</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.240801731486746</v>
+        <v>0.1795754067334698</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08255286808391003</v>
+        <v>-0.003583442416167899</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1333563633602791</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.7726848012873</v>
       </c>
       <c r="H3" t="n">
-        <v>485.3939670178032</v>
+        <v>224.1315825870556</v>
       </c>
       <c r="I3" t="n">
-        <v>436.6958470382312</v>
+        <v>171.3152810144953</v>
       </c>
       <c r="J3" t="n">
-        <v>299.169138471205</v>
+        <v>126.5278095602351</v>
       </c>
       <c r="K3" t="n">
-        <v>408.8494819426579</v>
+        <v>271.5826212188313</v>
       </c>
       <c r="L3" t="n">
-        <v>499.593551482129</v>
-      </c>
-      <c r="M3" t="n">
-        <v>515.803599794863</v>
-      </c>
-      <c r="N3" t="n">
-        <v>513.4625058407839</v>
+        <v>135.7553808976448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.98041425468602e-17</v>
+        <v>1.080701208043816e-16</v>
       </c>
       <c r="B4" t="n">
-        <v>8.763521341279153</v>
+        <v>5.391182599901484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01486666758628166</v>
+        <v>2.643562563851591</v>
       </c>
       <c r="D4" t="n">
-        <v>2.756253762499101</v>
+        <v>0.2026862431162293</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02911270517105026</v>
+        <v>0.007517191566406521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1036626321243199</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.3660167652809</v>
       </c>
       <c r="H4" t="n">
-        <v>361.328496431315</v>
+        <v>254.7696516300086</v>
       </c>
       <c r="I4" t="n">
-        <v>268.1518919403587</v>
+        <v>238.0795854274347</v>
       </c>
       <c r="J4" t="n">
-        <v>359.6034521980309</v>
+        <v>154.8114787297229</v>
       </c>
       <c r="K4" t="n">
-        <v>200.0524871720202</v>
+        <v>237.1697220254357</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3586055206772</v>
-      </c>
-      <c r="M4" t="n">
-        <v>238.119000005915</v>
-      </c>
-      <c r="N4" t="n">
-        <v>271.1118778072905</v>
+        <v>205.0106452753902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.888413102879092e-16</v>
+        <v>-1.845624281164633e-16</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.759754475949025</v>
+        <v>-4.827264984235071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270071394342298</v>
+        <v>-3.220678245348324</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.374631517555107</v>
+        <v>-0.2013181532773518</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0665519957554345</v>
+        <v>-0.007317586539138946</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1425444911655587</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>129.6682145877657</v>
       </c>
       <c r="H5" t="n">
-        <v>477.528222691642</v>
+        <v>251.7875009270034</v>
       </c>
       <c r="I5" t="n">
-        <v>502.3270818423769</v>
+        <v>258.0252255312994</v>
       </c>
       <c r="J5" t="n">
-        <v>197.6445055132067</v>
+        <v>144.6189772089974</v>
       </c>
       <c r="K5" t="n">
-        <v>214.344379074006</v>
+        <v>189.1694026031129</v>
       </c>
       <c r="L5" t="n">
-        <v>316.9809979180069</v>
-      </c>
-      <c r="M5" t="n">
-        <v>479.4858432737691</v>
-      </c>
-      <c r="N5" t="n">
-        <v>389.1309435996199</v>
+        <v>256.742593829978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-9.286157221446446e-17</v>
+        <v>-1.683442038383327e-16</v>
       </c>
       <c r="B6" t="n">
-        <v>5.735982617684324</v>
+        <v>1.783560001038565</v>
       </c>
       <c r="C6" t="n">
-        <v>3.442763122806434</v>
+        <v>3.375512034666428</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.446002018757696</v>
+        <v>0.2029708982680262</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.08222631999044433</v>
+        <v>0.006271260738329743</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1340991022356879</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>220.2558318781338</v>
       </c>
       <c r="H6" t="n">
-        <v>509.7478739052677</v>
+        <v>257.4972668859456</v>
       </c>
       <c r="I6" t="n">
-        <v>440.5642646229581</v>
+        <v>242.5310087683742</v>
       </c>
       <c r="J6" t="n">
-        <v>301.5895372471006</v>
+        <v>132.8407361717562</v>
       </c>
       <c r="K6" t="n">
-        <v>348.910821684365</v>
+        <v>199.3415175258926</v>
       </c>
       <c r="L6" t="n">
-        <v>514.9436092261838</v>
-      </c>
-      <c r="M6" t="n">
-        <v>512.9683443023638</v>
-      </c>
-      <c r="N6" t="n">
-        <v>459.0127361325627</v>
+        <v>226.0330536167014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.126346206755841e-16</v>
+        <v>-3.291650783491831e-19</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.192284577616161</v>
+        <v>-0.005375673681233817</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.443418641811209</v>
+        <v>-3.375727664870828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2657907344864118</v>
+        <v>-0.2030653874119441</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01329079215864823</v>
+        <v>-0.002851735476734864</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08231174106343116</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>211.4001417014118</v>
       </c>
       <c r="H7" t="n">
-        <v>395.3277419870796</v>
+        <v>266.0970836242501</v>
       </c>
       <c r="I7" t="n">
-        <v>241.8307080666694</v>
+        <v>242.1817437874803</v>
       </c>
       <c r="J7" t="n">
-        <v>372.6260536919472</v>
+        <v>252.8852634356917</v>
       </c>
       <c r="K7" t="n">
-        <v>475.0405701949384</v>
+        <v>178.6090399531189</v>
       </c>
       <c r="L7" t="n">
-        <v>392.6463691999913</v>
-      </c>
-      <c r="M7" t="n">
-        <v>363.6316180194382</v>
-      </c>
-      <c r="N7" t="n">
-        <v>476.4951506109616</v>
+        <v>188.0562407508727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.979881964768324e-16</v>
+        <v>1.086048679709724e-16</v>
       </c>
       <c r="B8" t="n">
-        <v>6.192282068997668</v>
+        <v>4.493349786343424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1514202957827768</v>
+        <v>2.605780438604654</v>
       </c>
       <c r="D8" t="n">
-        <v>2.865031990409634</v>
+        <v>0.2031107813681735</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01667243577036912</v>
+        <v>0.00242732826435998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1201450936561008</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>149.1741017968165</v>
       </c>
       <c r="H8" t="n">
-        <v>382.1446781070459</v>
+        <v>124.7360078668232</v>
       </c>
       <c r="I8" t="n">
-        <v>192.1938263547758</v>
+        <v>273.1744915348012</v>
       </c>
       <c r="J8" t="n">
-        <v>407.0807806342549</v>
+        <v>292.1345758085127</v>
       </c>
       <c r="K8" t="n">
-        <v>289.2335407138834</v>
+        <v>186.1476101281578</v>
       </c>
       <c r="L8" t="n">
-        <v>377.4210011138813</v>
-      </c>
-      <c r="M8" t="n">
-        <v>221.5690860109626</v>
-      </c>
-      <c r="N8" t="n">
-        <v>303.5333163508629</v>
+        <v>253.4311328550463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.641617607940851e-17</v>
+        <v>1.732390117020507e-17</v>
       </c>
       <c r="B9" t="n">
-        <v>3.67769799936344</v>
+        <v>-1.076928069751926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04966293174512561</v>
+        <v>-1.011614008281825</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.869848252803546</v>
+        <v>-0.2031107100436272</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0401212008750032</v>
+        <v>-0.001957072854844516</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09090384949421347</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>147.0431648108348</v>
       </c>
       <c r="H9" t="n">
-        <v>395.920800398075</v>
+        <v>225.9395902873927</v>
       </c>
       <c r="I9" t="n">
-        <v>312.5026810671708</v>
+        <v>121.1033139536509</v>
       </c>
       <c r="J9" t="n">
-        <v>329.3006601180693</v>
+        <v>215.2488238566582</v>
       </c>
       <c r="K9" t="n">
-        <v>448.8695762947438</v>
+        <v>280.3485395767818</v>
       </c>
       <c r="L9" t="n">
-        <v>491.5325476948781</v>
-      </c>
-      <c r="M9" t="n">
-        <v>372.3057860108257</v>
-      </c>
-      <c r="N9" t="n">
-        <v>410.6200076527715</v>
+        <v>234.0326465494702</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-9.308170892949728e-17</v>
+        <v>1.03241876543223e-16</v>
       </c>
       <c r="B10" t="n">
-        <v>6.638953409829795</v>
+        <v>4.405765489687714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7737428675330913</v>
+        <v>2.664304965204046</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.332293560020399</v>
+        <v>0.2028394141259019</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1711908461494442</v>
+        <v>0.007824809061729034</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004158360967413591</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>191.3176520515296</v>
       </c>
       <c r="H10" t="n">
-        <v>354.5112715827544</v>
+        <v>270.1933259115672</v>
       </c>
       <c r="I10" t="n">
-        <v>232.0579089482918</v>
+        <v>133.6858373312155</v>
       </c>
       <c r="J10" t="n">
-        <v>346.1937065514103</v>
+        <v>275.8970418855423</v>
       </c>
       <c r="K10" t="n">
-        <v>309.4438411410486</v>
+        <v>101.3161647264101</v>
       </c>
       <c r="L10" t="n">
-        <v>401.3968895387717</v>
-      </c>
-      <c r="M10" t="n">
-        <v>484.9806782256219</v>
-      </c>
-      <c r="N10" t="n">
-        <v>293.3333574111562</v>
+        <v>154.9356586646803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-7.293847233907031e-16</v>
+        <v>4.130525021709192e-17</v>
       </c>
       <c r="B11" t="n">
-        <v>8.59929693333806</v>
+        <v>0.6745659278389531</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5068120455590905</v>
+        <v>-2.731645076102577</v>
       </c>
       <c r="D11" t="n">
-        <v>1.086057945093318</v>
+        <v>-0.2029582264175759</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1709812011493719</v>
+        <v>-0.007830809023752888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005173503234148789</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>230.3812290452207</v>
       </c>
       <c r="H11" t="n">
-        <v>537.3101253217721</v>
+        <v>223.7815964727285</v>
       </c>
       <c r="I11" t="n">
-        <v>242.9785987216519</v>
+        <v>142.7973392022993</v>
       </c>
       <c r="J11" t="n">
-        <v>333.2409847018682</v>
+        <v>293.1749143526619</v>
       </c>
       <c r="K11" t="n">
-        <v>513.3010088635672</v>
+        <v>164.4516484988825</v>
       </c>
       <c r="L11" t="n">
-        <v>516.5222581864437</v>
-      </c>
-      <c r="M11" t="n">
-        <v>201.7686216182516</v>
-      </c>
-      <c r="N11" t="n">
-        <v>192.2909810459731</v>
+        <v>237.6588157930173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.268428559121734e-17</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>2.34690668613656</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1892166042793877</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4576230225017918</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007830261864119746</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1548768194610479</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>194.1428854114579</v>
       </c>
       <c r="H12" t="n">
-        <v>243.412783090511</v>
+        <v>293.2941033027114</v>
       </c>
       <c r="I12" t="n">
-        <v>490.6140698146687</v>
+        <v>101.8237594698294</v>
       </c>
       <c r="J12" t="n">
-        <v>398.8873602718414</v>
+        <v>278.2921504521381</v>
       </c>
       <c r="K12" t="n">
-        <v>442.0081865252918</v>
+        <v>194.9480504566119</v>
       </c>
       <c r="L12" t="n">
-        <v>521.1176628360802</v>
-      </c>
-      <c r="M12" t="n">
-        <v>230.1440907067151</v>
-      </c>
-      <c r="N12" t="n">
-        <v>230.1042292712779</v>
+        <v>222.1668117909487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.881716712170072e-18</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6922730380336786</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.000642904925759387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4929182635350759</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007685180859486992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1548969613412612</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>194.1428854114579</v>
       </c>
       <c r="H13" t="n">
-        <v>395.671394524408</v>
+        <v>293.2941033027114</v>
       </c>
       <c r="I13" t="n">
-        <v>270.2762959640062</v>
+        <v>101.8237594698294</v>
       </c>
       <c r="J13" t="n">
-        <v>195.7589088812408</v>
+        <v>278.2921504521381</v>
       </c>
       <c r="K13" t="n">
-        <v>350.1185314530817</v>
+        <v>194.9480504566119</v>
       </c>
       <c r="L13" t="n">
-        <v>331.151126844255</v>
-      </c>
-      <c r="M13" t="n">
-        <v>311.9634251843502</v>
-      </c>
-      <c r="N13" t="n">
-        <v>400.647436074185</v>
+        <v>222.1668117909487</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>190.6817059191295</v>
-      </c>
-      <c r="I14" t="n">
-        <v>407.1578754882274</v>
-      </c>
-      <c r="J14" t="n">
-        <v>229.9306121754371</v>
-      </c>
-      <c r="K14" t="n">
-        <v>515.3986112461459</v>
-      </c>
-      <c r="L14" t="n">
-        <v>343.3926429191748</v>
-      </c>
-      <c r="M14" t="n">
-        <v>519.2475319439154</v>
-      </c>
-      <c r="N14" t="n">
-        <v>182.5216974445223</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Torque 1 max</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Torque 2 max</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Torque 3 max</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Torque 4 max</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Torque 5 max</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Torque 6 max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>4.027099431972793e-16</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>5.391182599901484</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3.375512034666428</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.2031107813681735</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.007824809061729034</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>190.6817059191295</v>
-      </c>
-      <c r="I15" t="n">
-        <v>407.1578754882274</v>
-      </c>
-      <c r="J15" t="n">
-        <v>229.9306121754371</v>
-      </c>
-      <c r="K15" t="n">
-        <v>515.3986112461459</v>
-      </c>
-      <c r="L15" t="n">
-        <v>343.3926429191748</v>
-      </c>
-      <c r="M15" t="n">
-        <v>519.2475319439154</v>
-      </c>
-      <c r="N15" t="n">
-        <v>182.5216974445223</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Torque 1 max</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Torque 2 max</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Torque 3 max</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Torque 4 max</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Torque 5 max</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Torque 6 max</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Torque 7 max</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2.091084402029074e-15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>8.763521341279153</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.442763122806434</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.865031990409634</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1711908461494442</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1548768194610479</v>
-      </c>
-      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
